--- a/biology/Médecine/Ligament_ménisco-fémoral_antérieur/Ligament_ménisco-fémoral_antérieur.xlsx
+++ b/biology/Médecine/Ligament_ménisco-fémoral_antérieur/Ligament_ménisco-fémoral_antérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_ant%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_antérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament ménisco-fémoral antérieur (ou ligament ménisco-fémoral antérieur de Humphry) est un ligament de l'articulation fémoro-tibiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_ant%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_antérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament ménisco-fémoral antérieur est une petite bande fibreuse qui naît de la corne postérieure du ménisque latéral. Il passe en haut et en dedans devant le ligament croisé postérieur pour se fixer sur le condyle latéral du fémur.
-Variation
-Le ligament ménisco-fémoral antérieur est retrouvé chez 11,8 % des sujets lors d'une IRM du genou[1].
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_ant%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_antérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anatomie fonctionnelle</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le ligament ménisco-fémoral antérieur, associé au ligament ménisco-fémoral postérieur, au ligaments ménisco-tibiaux et aux faisceaux poplitéo-méniscaux, stabilise la partie postéro-latérale du ménisque latéral[2].
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament ménisco-fémoral antérieur est retrouvé chez 11,8 % des sujets lors d'une IRM du genou.
 </t>
         </is>
       </c>
@@ -557,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_ant%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_antérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +590,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Anatomie fonctionnelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament ménisco-fémoral antérieur, associé au ligament ménisco-fémoral postérieur, au ligaments ménisco-tibiaux et aux faisceaux poplitéo-méniscaux, stabilise la partie postéro-latérale du ménisque latéral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ligament_ménisco-fémoral_antérieur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_m%C3%A9nisco-f%C3%A9moral_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'une arthroscopie, le ligament ménisco-fémoral antérieur peut être confondu avec le ligament croisé postérieur.
 </t>
